--- a/data/trans_bre/P36B08_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.218127442403516</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.727418145750848</v>
+        <v>1.727418145750836</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2321833728314987</v>
@@ -649,7 +649,7 @@
         <v>0.01625686473181315</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.01863409566211902</v>
+        <v>0.0186340956621189</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>8.548460720856573</v>
+        <v>8.798080317759277</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.420675489743572</v>
+        <v>3.697555254498806</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.247410920783032</v>
+        <v>-2.474747934516772</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.53539138853617</v>
+        <v>-1.368542629932091</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1434670441601261</v>
+        <v>0.1430488551714789</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06815210778330684</v>
+        <v>0.05661981719045839</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.02950366572162827</v>
+        <v>-0.0318370633499637</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.01569099432703009</v>
+        <v>-0.01453037641789047</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.48152745699583</v>
+        <v>18.95664805153138</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.34421927012178</v>
+        <v>12.08835555021373</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.889276518004801</v>
+        <v>4.762400195584017</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.766267293119444</v>
+        <v>5.264565647475116</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3485374424781175</v>
+        <v>0.3572437144310087</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2055323105039957</v>
+        <v>0.2006867079548348</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06724410270373014</v>
+        <v>0.06553262848067004</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.05280851571644078</v>
+        <v>0.05830218160254148</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>8.313629566829128</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1373126238290445</v>
+        <v>0.1373126238290556</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1107167993480982</v>
@@ -749,7 +749,7 @@
         <v>0.1202221717080902</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.001424850240369726</v>
+        <v>0.001424850240369841</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.888774892491988</v>
+        <v>3.340392799931358</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.648678030352179</v>
+        <v>5.548704915999317</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.239939223239049</v>
+        <v>4.245683106783525</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.462389987349905</v>
+        <v>-1.289750033166006</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04406404545283367</v>
+        <v>0.05175447488795323</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07552657059231796</v>
+        <v>0.07654855148473412</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05973680565799262</v>
+        <v>0.0600118114543351</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.01498694158573893</v>
+        <v>-0.01327725698436566</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.12301853361334</v>
+        <v>11.32525635849265</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.67453366946084</v>
+        <v>13.5540221668713</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.43625257154667</v>
+        <v>12.21122770338081</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.811456376932116</v>
+        <v>1.789908259593804</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1785319653843733</v>
+        <v>0.1825568617802827</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1975747893854233</v>
+        <v>0.1974402685643209</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.186981282887791</v>
+        <v>0.1824270555381773</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.01909299960816755</v>
+        <v>0.01873613987373306</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>5.016039285573082</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.11099168912542</v>
+        <v>3.110991689125409</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08871784592897908</v>
@@ -849,7 +849,7 @@
         <v>0.06987207000494014</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.03343141076480205</v>
+        <v>0.03343141076480193</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.930083085164221</v>
+        <v>1.928535841557879</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.139983617087189</v>
+        <v>5.381725662188861</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.042349877399342</v>
+        <v>0.1940659858222119</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.001477671138888</v>
+        <v>1.046016176064572</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.02867527623270182</v>
+        <v>0.0296607528792787</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06640350801784575</v>
+        <v>0.06868636776486202</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01420961124713148</v>
+        <v>0.003361319523942268</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.01081727784110576</v>
+        <v>0.01149853229716725</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.929812053778557</v>
+        <v>9.858289098010834</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.91159179588364</v>
+        <v>12.54384150068624</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.355318824655475</v>
+        <v>9.308402981389866</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.27035419525795</v>
+        <v>5.603013429515243</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1574994318780229</v>
+        <v>0.1568218555427194</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1755275851088662</v>
+        <v>0.171188123783893</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1337744949229625</v>
+        <v>0.1340515473833737</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.05771317894692204</v>
+        <v>0.06180401771656282</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>9.350234019085747</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8125097080648458</v>
+        <v>0.8125097080648347</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1364176220536243</v>
@@ -949,7 +949,7 @@
         <v>0.1287545024277994</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.008584156717138644</v>
+        <v>0.008584156717138528</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.833678343480362</v>
+        <v>1.82111314577972</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.120994441616753</v>
+        <v>2.426855321707129</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.218952245687479</v>
+        <v>4.223160093359005</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.404356111456668</v>
+        <v>-1.464476315296155</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02587023513173587</v>
+        <v>0.02672568055190236</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02750679810635029</v>
+        <v>0.03056664287632334</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05658198495536107</v>
+        <v>0.05617348403670526</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.01481154820352134</v>
+        <v>-0.01519288392087657</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.95309952640891</v>
+        <v>15.19479772415057</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.28650923340406</v>
+        <v>12.15192562460511</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.6535487011357</v>
+        <v>14.4647541668655</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.121701109664333</v>
+        <v>3.289739737792698</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2397154436078718</v>
+        <v>0.2460574481356359</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1651175619619664</v>
+        <v>0.1625238806724853</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2105038442776662</v>
+        <v>0.2100140183730675</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.03335614193885665</v>
+        <v>0.03562648666019148</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>5.222968248254189</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.436790086504214</v>
+        <v>1.436790086504225</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1222116916406576</v>
@@ -1049,7 +1049,7 @@
         <v>0.07228456707837162</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.01522559199307384</v>
+        <v>0.01522559199307395</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.509608683413847</v>
+        <v>5.599358250085886</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.099345858408426</v>
+        <v>6.318590592907459</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.911876609649294</v>
+        <v>3.238265204149301</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4423856097680857</v>
+        <v>0.3390075732440984</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08472231131325056</v>
+        <v>0.0869780793655912</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08451141699633533</v>
+        <v>0.08792129873152382</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03966734305983412</v>
+        <v>0.04361551692820835</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.004710509977514534</v>
+        <v>0.00358961979221014</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.02373019234378</v>
+        <v>10.3386202785804</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.58054655805315</v>
+        <v>10.50212726665948</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.378173002580642</v>
+        <v>7.57856204242213</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.750822655915186</v>
+        <v>2.57912141729841</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1622661763962492</v>
+        <v>0.167536871860941</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1519093584272313</v>
+        <v>0.1506863323748048</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1042756664181619</v>
+        <v>0.1064802462042521</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.02948303743244231</v>
+        <v>0.027666500728638</v>
       </c>
     </row>
     <row r="19">
